--- a/レビュー議事録/反復１設計レビュー結果記録.xlsx
+++ b/レビュー議事録/反復１設計レビュー結果記録.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32B7F31-2943-4AFC-B0EF-C6012433D9A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E4E7C2-9EE3-47DF-81A5-34AE09344258}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要サンプル" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -424,13 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マークが入ってないマスがあるときについて</t>
-    <rPh sb="4" eb="5">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>誘導可能性を書く</t>
     <rPh sb="0" eb="2">
       <t>ユウドウ</t>
@@ -444,13 +437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>checkCoordnateの位置</t>
-    <rPh sb="15" eb="17">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セルからボードクラスに移動</t>
     <rPh sb="11" eb="13">
       <t>イドウ</t>
@@ -458,13 +444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>isWinnerLineのテスト手順について</t>
-    <rPh sb="16" eb="18">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト手順を追加する</t>
     <rPh sb="3" eb="5">
       <t>テジュン</t>
@@ -475,13 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保留</t>
-    <rPh sb="0" eb="2">
-      <t>ホリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WinnerLineで座標に〇が置くところもテストする</t>
   </si>
   <si>
@@ -574,6 +546,45 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>マークに何も入ってない場合のenumがない</t>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isWinnerLineのテスト手順の工程が足りない</t>
+    <rPh sb="16" eb="18">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkCoordnateの位置が違う</t>
+    <rPh sb="15" eb="17">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -974,56 +985,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,10 +1498,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
@@ -1499,10 +1510,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1512,66 +1523,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1580,10 +1591,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
@@ -1592,10 +1603,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1604,10 +1615,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1616,44 +1627,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1668,18 +1679,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1689,6 +1688,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1977,7 +1988,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1990,10 +2001,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
@@ -2002,10 +2013,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
@@ -2014,66 +2025,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2082,11 +2093,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="14">
@@ -2094,11 +2105,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="14">
@@ -2106,11 +2117,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="14">
@@ -2118,44 +2129,44 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2170,17 +2181,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -2191,6 +2191,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2210,8 +2221,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2264,7 +2275,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>50</v>
@@ -2304,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>45</v>
@@ -2327,13 +2338,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>48</v>
@@ -2350,13 +2361,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>48</v>
@@ -2370,20 +2381,18 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>59</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -2396,13 +2405,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>48</v>
@@ -2419,15 +2428,15 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2572,6 +2581,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2755,22 +2779,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2786,28 +2819,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/レビュー議事録/反復１設計レビュー結果記録.xlsx
+++ b/レビュー議事録/反復１設計レビュー結果記録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E4E7C2-9EE3-47DF-81A5-34AE09344258}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45761397-D7F5-4055-B291-15F4C8F91375}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,22 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マークとボードの関連と多重度の必要性</t>
-    <rPh sb="8" eb="10">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タジュウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ヒツヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　本日中</t>
     <rPh sb="1" eb="4">
       <t>ホンジツチュウ</t>
@@ -479,13 +463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WinnerLineのテスト手順</t>
-    <rPh sb="14" eb="16">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>三目並べクラスがドライバでなくても良いのでは</t>
     <rPh sb="0" eb="1">
       <t>サン</t>
@@ -553,19 +530,6 @@
     <t>その他</t>
   </si>
   <si>
-    <t>マークに何も入ってない場合のenumがない</t>
-    <rPh sb="4" eb="5">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>isWinnerLineのテスト手順の工程が足りない</t>
     <rPh sb="16" eb="18">
       <t>テジュン</t>
@@ -585,6 +549,36 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークに何も入ってない場合のenumがない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークとボードの関連と多重度が必要</t>
+    <rPh sb="8" eb="10">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WinnerLineのテスト手順が少ない</t>
+    <rPh sb="14" eb="16">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -991,6 +985,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,10 +1012,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1020,21 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1498,10 +1492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
@@ -1510,10 +1504,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1523,66 +1517,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1591,10 +1585,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
@@ -1603,10 +1597,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1615,10 +1609,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1627,44 +1621,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1679,6 +1673,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1688,18 +1694,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2001,10 +1995,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
@@ -2013,10 +2007,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
@@ -2025,66 +2019,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2093,10 +2087,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="22" t="s">
         <v>43</v>
       </c>
@@ -2105,10 +2099,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="22" t="s">
         <v>43</v>
       </c>
@@ -2117,10 +2111,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="22" t="s">
         <v>43</v>
       </c>
@@ -2129,44 +2123,44 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2181,6 +2175,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -2191,17 +2196,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2222,7 +2216,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2275,10 +2269,10 @@
         <v>45</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2292,13 +2286,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>48</v>
@@ -2321,7 +2315,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>48</v>
@@ -2338,13 +2332,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>48</v>
@@ -2361,13 +2355,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>48</v>
@@ -2381,16 +2375,16 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2405,13 +2399,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>48</v>
@@ -2428,13 +2422,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>48</v>
@@ -2581,21 +2575,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2779,31 +2758,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2819,4 +2789,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/レビュー議事録/反復１設計レビュー結果記録.xlsx
+++ b/レビュー議事録/反復１設計レビュー結果記録.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45761397-D7F5-4055-B291-15F4C8F91375}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC9C83A-639C-4009-A168-FD3EBCFCC798}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-1545" yWindow="1245" windowWidth="19035" windowHeight="10425" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要サンプル" sheetId="4" r:id="rId1"/>
@@ -292,14 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020/06/04 （木）
-14：40~15：00</t>
-    <rPh sb="12" eb="13">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鈴木</t>
     <rPh sb="0" eb="2">
       <t>スズキ</t>
@@ -307,9 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設計</t>
-  </si>
-  <si>
     <t>反復1 第4回 設計 合否判定レビュー</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
@@ -579,6 +568,18 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/04 （木）
+11：30~11：45</t>
+    <rPh sb="12" eb="13">
+      <t>モク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -985,50 +986,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,10 +1493,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
@@ -1504,10 +1505,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1517,66 +1518,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1585,10 +1586,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
@@ -1597,10 +1598,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1609,10 +1610,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1621,44 +1622,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1673,18 +1674,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1694,6 +1683,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1982,8 +1983,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1995,10 +1996,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
@@ -2007,78 +2008,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="31"/>
+      <c r="A2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="31"/>
+      <c r="A6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+        <v>65</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2087,80 +2088,80 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="25"/>
+      <c r="A12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="35"/>
       <c r="C12" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2175,17 +2176,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -2196,6 +2186,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2215,8 +2216,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2257,22 +2258,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2280,22 +2281,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2303,22 +2304,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2326,22 +2327,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2349,22 +2350,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2372,19 +2373,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2393,22 +2394,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2416,22 +2417,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2575,6 +2576,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2758,22 +2774,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2789,28 +2814,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>